--- a/output/Du_tinh.xlsx
+++ b/output/Du_tinh.xlsx
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="D2">
         <v>1179843</v>
       </c>
       <c r="E2">
-        <v>0.1345094220163191</v>
+        <v>0.1354417494531052</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="D3">
         <v>1001016</v>
       </c>
       <c r="E3">
-        <v>0.09919921359898343</v>
+        <v>0.09959880761146675</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="D4">
         <v>1219670</v>
       </c>
       <c r="E4">
-        <v>0.08198939057285987</v>
+        <v>0.08289127386916133</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="D5">
         <v>1704001</v>
       </c>
       <c r="E5">
-        <v>0.07863845150325616</v>
+        <v>0.07981215973464804</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="D7">
         <v>899954</v>
       </c>
       <c r="E7">
-        <v>0.0747815999484418</v>
+        <v>0.07644835180464779</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="D8">
         <v>1184676</v>
       </c>
       <c r="E8">
-        <v>0.07174957541133609</v>
+        <v>0.07225604300247493</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D9">
         <v>1156457</v>
       </c>
       <c r="E9">
-        <v>0.05836792894158624</v>
+        <v>0.05871381296494378</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>4526</v>
+        <v>4563</v>
       </c>
       <c r="D10">
         <v>7915641</v>
       </c>
       <c r="E10">
-        <v>0.05717793416856575</v>
+        <v>0.057645363148733</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>4580</v>
+        <v>4674</v>
       </c>
       <c r="D11">
         <v>8923540</v>
       </c>
       <c r="E11">
-        <v>0.05132492262039504</v>
+        <v>0.05237831622876123</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -731,30 +731,30 @@
         </is>
       </c>
       <c r="C12">
-        <v>1290</v>
+        <v>619</v>
       </c>
       <c r="D12">
-        <v>3299066</v>
+        <v>1234621</v>
       </c>
       <c r="E12">
-        <v>0.03910197613506368</v>
+        <v>0.05013684361435614</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tỉnh Nghệ An</t>
+          <t>Tỉnh Sơn La</t>
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,30 +763,30 @@
         </is>
       </c>
       <c r="C13">
-        <v>734</v>
+        <v>633</v>
       </c>
       <c r="D13">
-        <v>1884680</v>
+        <v>1477505</v>
       </c>
       <c r="E13">
-        <v>0.038945603497676</v>
+        <v>0.04284249461084734</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tỉnh An Giang</t>
+          <t>Tỉnh Quảng Nam</t>
         </is>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -795,30 +795,30 @@
         </is>
       </c>
       <c r="C14">
-        <v>1374</v>
+        <v>1293</v>
       </c>
       <c r="D14">
-        <v>3609772</v>
+        <v>3299066</v>
       </c>
       <c r="E14">
-        <v>0.03806334582904405</v>
+        <v>0.03919291096328476</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tỉnh Thanh Hóa</t>
+          <t>Tỉnh Nghệ An</t>
         </is>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -827,30 +827,30 @@
         </is>
       </c>
       <c r="C15">
-        <v>322</v>
+        <v>738</v>
       </c>
       <c r="D15">
-        <v>984121</v>
+        <v>1884680</v>
       </c>
       <c r="E15">
-        <v>0.03271955379470614</v>
+        <v>0.03915784111891674</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tỉnh Bình Phước</t>
+          <t>Tỉnh An Giang</t>
         </is>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -859,30 +859,30 @@
         </is>
       </c>
       <c r="C16">
-        <v>761</v>
+        <v>1379</v>
       </c>
       <c r="D16">
-        <v>2411273</v>
+        <v>3609772</v>
       </c>
       <c r="E16">
-        <v>0.03156009294675468</v>
+        <v>0.03820185873235207</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tỉnh Bình Dương</t>
+          <t>Tỉnh Thanh Hóa</t>
         </is>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -891,30 +891,30 @@
         </is>
       </c>
       <c r="C17">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D17">
-        <v>1236739</v>
+        <v>984121</v>
       </c>
       <c r="E17">
-        <v>0.02943224075572938</v>
+        <v>0.03332923492131557</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tỉnh Hưng Yên</t>
+          <t>Tỉnh Bình Phước</t>
         </is>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -923,30 +923,30 @@
         </is>
       </c>
       <c r="C18">
-        <v>309</v>
+        <v>781</v>
       </c>
       <c r="D18">
-        <v>1131769</v>
+        <v>2411273</v>
       </c>
       <c r="E18">
-        <v>0.02730239121234103</v>
+        <v>0.03238953034351565</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Tỉnh Bình Dương</t>
         </is>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -955,30 +955,30 @@
         </is>
       </c>
       <c r="C19">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="D19">
-        <v>843026</v>
+        <v>1236739</v>
       </c>
       <c r="E19">
-        <v>0.02514750434743412</v>
+        <v>0.02967481416855133</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tỉnh Hà Nam</t>
+          <t>Tỉnh Hưng Yên</t>
         </is>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -987,30 +987,30 @@
         </is>
       </c>
       <c r="C20">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="D20">
-        <v>1134402</v>
+        <v>1112835</v>
       </c>
       <c r="E20">
-        <v>0.02477076027722095</v>
+        <v>0.02848580427466785</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tỉnh Bà Rịa - Vũng Tàu</t>
+          <t>Thành phố Đà Nẵng</t>
         </is>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1019,30 +1019,30 @@
         </is>
       </c>
       <c r="C21">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="D21">
-        <v>965847</v>
+        <v>1131769</v>
       </c>
       <c r="E21">
-        <v>0.02464158401900094</v>
+        <v>0.02756746297168415</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tỉnh Ninh Bình</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1051,30 +1051,30 @@
         </is>
       </c>
       <c r="C22">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="D22">
-        <v>1209688</v>
+        <v>726042</v>
       </c>
       <c r="E22">
-        <v>0.02463445119733353</v>
+        <v>0.02548061957848169</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tỉnh Khánh Hòa</t>
+          <t>Tỉnh Hậu Giang</t>
         </is>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="C23">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="D23">
-        <v>1112835</v>
+        <v>843026</v>
       </c>
       <c r="E23">
-        <v>0.02426235695318713</v>
+        <v>0.02538474495448539</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Thành phố Đà Nẵng</t>
+          <t>Tỉnh Hà Nam</t>
         </is>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1115,30 +1115,30 @@
         </is>
       </c>
       <c r="C24">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="D24">
-        <v>766362</v>
+        <v>1134402</v>
       </c>
       <c r="E24">
-        <v>0.02400954118288746</v>
+        <v>0.02512336896444118</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tỉnh Lạng Sơn</t>
+          <t>Tỉnh Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1147,30 +1147,30 @@
         </is>
       </c>
       <c r="C25">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="D25">
-        <v>726042</v>
+        <v>965847</v>
       </c>
       <c r="E25">
-        <v>0.02396555571165305</v>
+        <v>0.02505572828822785</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tỉnh Hậu Giang</t>
+          <t>Tỉnh Ninh Bình</t>
         </is>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1179,30 +1179,30 @@
         </is>
       </c>
       <c r="C26">
-        <v>691</v>
+        <v>303</v>
       </c>
       <c r="D26">
-        <v>3065934</v>
+        <v>1209688</v>
       </c>
       <c r="E26">
-        <v>0.02253799331622925</v>
+        <v>0.02504778091540959</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tỉnh Đồng Nai</t>
+          <t>Tỉnh Khánh Hòa</t>
         </is>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1211,30 +1211,30 @@
         </is>
       </c>
       <c r="C27">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="D27">
-        <v>1014169</v>
+        <v>766362</v>
       </c>
       <c r="E27">
-        <v>0.02188984281712417</v>
+        <v>0.02400954118288746</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Long</t>
+          <t>Tỉnh Lạng Sơn</t>
         </is>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1243,30 +1243,30 @@
         </is>
       </c>
       <c r="C28">
-        <v>346</v>
+        <v>712</v>
       </c>
       <c r="D28">
-        <v>1752438</v>
+        <v>3065934</v>
       </c>
       <c r="E28">
-        <v>0.01974392246687186</v>
+        <v>0.02322293956751841</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tỉnh Tiền Giang</t>
+          <t>Tỉnh Đồng Nai</t>
         </is>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>86</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1275,30 +1275,30 @@
         </is>
       </c>
       <c r="C29">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="D29">
-        <v>841569</v>
+        <v>1014169</v>
       </c>
       <c r="E29">
-        <v>0.01901210714748286</v>
+        <v>0.02188984281712417</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tỉnh Hoà Bình</t>
+          <t>Tỉnh Vĩnh Long</t>
         </is>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1307,30 +1307,30 @@
         </is>
       </c>
       <c r="C30">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="D30">
-        <v>1583414</v>
+        <v>1752438</v>
       </c>
       <c r="E30">
-        <v>0.0187569391201543</v>
+        <v>0.0203145560641803</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tỉnh Đồng Tháp</t>
+          <t>Tỉnh Tiền Giang</t>
         </is>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1339,30 +1339,30 @@
         </is>
       </c>
       <c r="C31">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="D31">
-        <v>1477505</v>
+        <v>841569</v>
       </c>
       <c r="E31">
-        <v>0.01847709483216639</v>
+        <v>0.01972506116551346</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tỉnh Quảng Nam</t>
+          <t>Tỉnh Hoà Bình</t>
         </is>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1371,30 +1371,30 @@
         </is>
       </c>
       <c r="C32">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="D32">
-        <v>1281633</v>
+        <v>1583414</v>
       </c>
       <c r="E32">
-        <v>0.01841400775416988</v>
+        <v>0.01913586718318772</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tỉnh Lâm Đồng</t>
+          <t>Tỉnh Đồng Tháp</t>
         </is>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1403,30 +1403,30 @@
         </is>
       </c>
       <c r="C33">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D33">
-        <v>1678325</v>
+        <v>1281633</v>
       </c>
       <c r="E33">
-        <v>0.01614705137562749</v>
+        <v>0.0190382114068536</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tỉnh Long An</t>
+          <t>Tỉnh Lâm Đồng</t>
         </is>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1435,30 +1435,30 @@
         </is>
       </c>
       <c r="C34">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="D34">
-        <v>1218554</v>
+        <v>613636</v>
       </c>
       <c r="E34">
-        <v>0.01600257354208348</v>
+        <v>0.01792593654870314</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tỉnh Bình Thuận</t>
+          <t>Tỉnh Đắk Nông</t>
         </is>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1467,30 +1467,30 @@
         </is>
       </c>
       <c r="C35">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D35">
-        <v>1272100</v>
+        <v>1218554</v>
       </c>
       <c r="E35">
-        <v>0.01587925477556796</v>
+        <v>0.01698734729851939</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tỉnh Hà Tĩnh</t>
+          <t>Tỉnh Bình Thuận</t>
         </is>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1499,30 +1499,30 @@
         </is>
       </c>
       <c r="C36">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="D36">
-        <v>1279246</v>
+        <v>1841873</v>
       </c>
       <c r="E36">
-        <v>0.01586872266944747</v>
+        <v>0.01683069353858817</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tỉnh Bến Tre</t>
+          <t>Tỉnh Đắk Lắk</t>
         </is>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1531,30 +1531,30 @@
         </is>
       </c>
       <c r="C37">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D37">
-        <v>1841873</v>
+        <v>1678325</v>
       </c>
       <c r="E37">
-        <v>0.01574484234255022</v>
+        <v>0.01656413388348502</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tỉnh Đắk Lắk</t>
+          <t>Tỉnh Long An</t>
         </is>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1563,30 +1563,30 @@
         </is>
       </c>
       <c r="C38">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D38">
-        <v>1371798</v>
+        <v>1272100</v>
       </c>
       <c r="E38">
-        <v>0.01516258224607413</v>
+        <v>0.01603647511988051</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tỉnh Gia Lai</t>
+          <t>Tỉnh Hà Tĩnh</t>
         </is>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1595,30 +1595,30 @@
         </is>
       </c>
       <c r="C39">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="D39">
-        <v>884527</v>
+        <v>1279246</v>
       </c>
       <c r="E39">
-        <v>0.01503628492968558</v>
+        <v>0.01594689371708022</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tỉnh Quảng Bình</t>
+          <t>Tỉnh Bến Tre</t>
         </is>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1627,30 +1627,30 @@
         </is>
       </c>
       <c r="C40">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="D40">
-        <v>613636</v>
+        <v>1371798</v>
       </c>
       <c r="E40">
-        <v>0.01482963841756351</v>
+        <v>0.01574575848630775</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tỉnh Đắk Nông</t>
+          <t>Tỉnh Gia Lai</t>
         </is>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1659,30 +1659,30 @@
         </is>
       </c>
       <c r="C41">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>621661</v>
+        <v>884527</v>
       </c>
       <c r="E41">
-        <v>0.0146382031364361</v>
+        <v>0.01503628492968558</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tỉnh Quảng Trị</t>
+          <t>Tỉnh Quảng Bình</t>
         </is>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1691,30 +1691,30 @@
         </is>
       </c>
       <c r="C42">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="D42">
-        <v>1467379</v>
+        <v>621661</v>
       </c>
       <c r="E42">
-        <v>0.01356159519796862</v>
+        <v>0.01495992188668744</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tỉnh Bình Định</t>
+          <t>Tỉnh Quảng Trị</t>
         </is>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1723,30 +1723,30 @@
         </is>
       </c>
       <c r="C43">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="D43">
-        <v>1842960</v>
+        <v>1467379</v>
       </c>
       <c r="E43">
-        <v>0.01323957112471242</v>
+        <v>0.0136297439175564</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tỉnh Thái Bình</t>
+          <t>Tỉnh Bình Định</t>
         </is>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1755,30 +1755,30 @@
         </is>
       </c>
       <c r="C44">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D44">
-        <v>1300807</v>
+        <v>1842960</v>
       </c>
       <c r="E44">
-        <v>0.01299193500649981</v>
+        <v>0.01340235273690151</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tỉnh Quảng Ninh</t>
+          <t>Tỉnh Thái Bình</t>
         </is>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1787,30 +1787,30 @@
         </is>
       </c>
       <c r="C45">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45">
-        <v>1353839</v>
+        <v>1300807</v>
       </c>
       <c r="E45">
-        <v>0.01270461258687333</v>
+        <v>0.01306881036156786</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tỉnh Bắc Ninh</t>
+          <t>Tỉnh Quảng Ninh</t>
         </is>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1819,30 +1819,30 @@
         </is>
       </c>
       <c r="C46">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D46">
-        <v>1996889</v>
+        <v>1353839</v>
       </c>
       <c r="E46">
-        <v>0.01251947404187213</v>
+        <v>0.01292620466687693</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Thành phố Hải Phòng</t>
+          <t>Tỉnh Bắc Ninh</t>
         </is>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1851,30 +1851,30 @@
         </is>
       </c>
       <c r="C47">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D47">
-        <v>1785938</v>
+        <v>1996889</v>
       </c>
       <c r="E47">
-        <v>0.01131058301016049</v>
+        <v>0.0126697077303746</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tỉnh Bắc Giang</t>
+          <t>Thành phố Hải Phòng</t>
         </is>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1883,30 +1883,30 @@
         </is>
       </c>
       <c r="C48">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D48">
-        <v>1868229</v>
+        <v>1785938</v>
       </c>
       <c r="E48">
-        <v>0.009955952937246987</v>
+        <v>0.0113665759953593</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tỉnh Hải Dương</t>
+          <t>Tỉnh Bắc Giang</t>
         </is>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1915,30 +1915,30 @@
         </is>
       </c>
       <c r="C49">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="D49">
-        <v>1265506</v>
+        <v>1868229</v>
       </c>
       <c r="E49">
-        <v>0.008534135752813499</v>
+        <v>0.01017005945202649</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tỉnh Thái Nguyên</t>
+          <t>Tỉnh Hải Dương</t>
         </is>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1947,30 +1947,30 @@
         </is>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D50">
-        <v>529413</v>
+        <v>1265506</v>
       </c>
       <c r="E50">
-        <v>0.008122203270414591</v>
+        <v>0.008534135752813499</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tỉnh Kon Tum</t>
+          <t>Tỉnh Thái Nguyên</t>
         </is>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1979,30 +1979,30 @@
         </is>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D51">
-        <v>774612</v>
+        <v>529413</v>
       </c>
       <c r="E51">
-        <v>0.007616716498066128</v>
+        <v>0.008499980166712945</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tỉnh Tuyên Quang</t>
+          <t>Tỉnh Kon Tum</t>
         </is>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2011,30 +2011,30 @@
         </is>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D52">
-        <v>306603</v>
+        <v>774612</v>
       </c>
       <c r="E52">
-        <v>0.0065230933813433</v>
+        <v>0.007616716498066128</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tỉnh Bắc Kạn</t>
+          <t>Tỉnh Tuyên Quang</t>
         </is>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2043,30 +2043,30 @@
         </is>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>810331</v>
+        <v>722640</v>
       </c>
       <c r="E53">
-        <v>0.006293724416318763</v>
+        <v>0.006642311524410495</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tỉnh Yên Bái</t>
+          <t>Tỉnh Lào Cai</t>
         </is>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2075,30 +2075,30 @@
         </is>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>583138</v>
+        <v>306603</v>
       </c>
       <c r="E54">
-        <v>0.00583052382111953</v>
+        <v>0.0065230933813433</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tỉnh Ninh Thuận</t>
+          <t>Tỉnh Bắc Kạn</t>
         </is>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2107,30 +2107,30 @@
         </is>
       </c>
       <c r="C55">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>1753955</v>
+        <v>810331</v>
       </c>
       <c r="E55">
-        <v>0.005473344527083077</v>
+        <v>0.006293724416318763</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tỉnh Nam Định</t>
+          <t>Tỉnh Yên Bái</t>
         </is>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2139,30 +2139,30 @@
         </is>
       </c>
       <c r="C56">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D56">
-        <v>1216785</v>
+        <v>583138</v>
       </c>
       <c r="E56">
-        <v>0.005424129981878475</v>
+        <v>0.006002009815858339</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tỉnh Quảng Ngãi</t>
+          <t>Tỉnh Ninh Thuận</t>
         </is>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
       <c r="H56">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2171,30 +2171,30 @@
         </is>
       </c>
       <c r="C57">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D57">
-        <v>1234621</v>
+        <v>1216785</v>
       </c>
       <c r="E57">
-        <v>0.005264773562089094</v>
+        <v>0.005752865132295352</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tỉnh Sơn La</t>
+          <t>Tỉnh Quảng Ngãi</t>
         </is>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2203,30 +2203,30 @@
         </is>
       </c>
       <c r="C58">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D58">
-        <v>859965</v>
+        <v>1753955</v>
       </c>
       <c r="E58">
-        <v>0.0051164872989017</v>
+        <v>0.005530358532573526</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tỉnh Phú Yên</t>
+          <t>Tỉnh Nam Định</t>
         </is>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2235,30 +2235,30 @@
         </is>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D59">
-        <v>847104</v>
+        <v>859965</v>
       </c>
       <c r="E59">
-        <v>0.004485871864611665</v>
+        <v>0.005349054903397232</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tỉnh Hà Giang</t>
+          <t>Tỉnh Phú Yên</t>
         </is>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2267,30 +2267,30 @@
         </is>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>587593</v>
+        <v>847104</v>
       </c>
       <c r="E60">
-        <v>0.004254645647582595</v>
+        <v>0.004485871864611665</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tỉnh Điện Biên</t>
+          <t>Tỉnh Hà Giang</t>
         </is>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2299,30 +2299,30 @@
         </is>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>1112606</v>
+        <v>587593</v>
       </c>
       <c r="E61">
-        <v>0.004134437527750165</v>
+        <v>0.0044248314734859</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tỉnh Thừa Thiên Huế</t>
+          <t>Tỉnh Điện Biên</t>
         </is>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2331,24 +2331,24 @@
         </is>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>722640</v>
+        <v>1112606</v>
       </c>
       <c r="E62">
-        <v>0.003597918742389018</v>
+        <v>0.004134437527750165</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tỉnh Lào Cai</t>
+          <t>Tỉnh Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>454085</v>
       </c>
       <c r="E63">
-        <v>0.002862900117819351</v>
+        <v>0.003523569375777663</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <v>518854</v>
       </c>
       <c r="E64">
-        <v>0.001349127114756752</v>
+        <v>0.001541859559722003</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
